--- a/AAAGameData/DataTables/LanguagesTable.xlsx
+++ b/AAAGameData/DataTables/LanguagesTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UGF\AAAGameData\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GF_X\AAAGameData\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>语言图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +483,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,9 +609,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9">
         <v>5</v>
       </c>
